--- a/Configs/Map.xlsx
+++ b/Configs/Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,8 +77,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI/MinerMap/Map01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>地图类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是金关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是金关卡2</t>
+  </si>
+  <si>
+    <t>这是金关卡3</t>
+  </si>
+  <si>
+    <t>金关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金关卡2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金关卡3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapJin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapJin2</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapJin3</t>
+  </si>
+  <si>
+    <t>水关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水关卡2</t>
+  </si>
+  <si>
+    <t>水关卡3</t>
+  </si>
+  <si>
+    <t>这是水关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是水关卡2</t>
+  </si>
+  <si>
+    <t>这是水关卡3</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapShui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapShui2</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapShui3</t>
+  </si>
+  <si>
+    <t>木关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木关卡2</t>
+  </si>
+  <si>
+    <t>木关卡3</t>
+  </si>
+  <si>
+    <t>这是木关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是木关卡2</t>
+  </si>
+  <si>
+    <t>这是木关卡3</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapMu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapMu2</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapMu3</t>
+  </si>
+  <si>
+    <t>火关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火关卡2</t>
+  </si>
+  <si>
+    <t>火关卡3</t>
+  </si>
+  <si>
+    <t>这是火关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是火关卡2</t>
+  </si>
+  <si>
+    <t>这是火关卡3</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapHuo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapHuo2</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapHuo3</t>
+  </si>
+  <si>
+    <t>土关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土关卡2</t>
+  </si>
+  <si>
+    <t>土关卡3</t>
+  </si>
+  <si>
+    <t>这是土关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是土关卡2</t>
+  </si>
+  <si>
+    <t>这是土关卡3</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapTu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapTu2</t>
+  </si>
+  <si>
+    <t>UI/MinerMap/MapTu3</t>
+  </si>
+  <si>
+    <t>五行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuxing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSingle</t>
   </si>
 </sst>
 </file>
@@ -407,15 +630,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,13 +650,25 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -437,13 +676,25 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -451,32 +702,441 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>30001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>30002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>30003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>A11+10000</f>
+        <v>40001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ref="A15:A16" si="0">A12+10000</f>
+        <v>40002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>40003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>A14+10000</f>
+        <v>50001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" ref="A18:A19" si="1">A15+10000</f>
+        <v>50002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>50003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
